--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 2:09 PM</t>
+    <t>Friday, 25 July, 2025 2:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -44,25 +44,52 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
     <t>38.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Friday, 25 July, 2025 2:31 PM</t>
+    <t>Friday, 25 July, 2025 3:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +751,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>133.74000000000001</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +862,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -89,7 +101,43 @@
     <t>38.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 3:34 PM</t>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Friday, 25 July, 2025 4:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -813,42 +861,174 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>133.74000000000001</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>32</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>27</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>32</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>247.74000000000001</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +1052,30 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -89,27 +101,78 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
     <t>38.0000</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -137,7 +200,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 4:27 PM</t>
+    <t>Friday, 25 July, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -894,7 +957,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -916,18 +979,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -936,7 +999,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -949,18 +1012,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,66 +1032,264 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>247.74000000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>24</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>49</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>49</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>49</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>31</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>49</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>543.5</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>63</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>64</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>65</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1333,40 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -89,6 +98,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FERRODEP SYRUP 150 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -104,9 +125,6 @@
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>109.00</t>
   </si>
   <si>
@@ -140,6 +158,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -179,9 +212,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -200,7 +230,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 5:19 PM</t>
+    <t>Friday, 25 July, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -891,7 +921,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -900,14 +930,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -917,14 +947,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -933,14 +963,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -950,11 +980,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -966,14 +996,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -983,14 +1013,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -999,14 +1029,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1016,11 +1046,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1032,14 +1062,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1049,14 +1079,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1065,14 +1095,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,14 +1112,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,14 +1128,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1122,7 +1152,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1138,24 +1168,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1164,31 +1194,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1197,31 +1227,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1230,20 +1260,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1254,42 +1284,141 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>543.5</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>63</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>64</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>65</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>53</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>60</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>68</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>30</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>60</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>865</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>75</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1363,10 +1492,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CINNARIZINE 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>19.50</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>FERRODEP SYRUP 150 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>250.00</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -230,7 +248,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 5:30 PM</t>
+    <t>Friday, 25 July, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -921,7 +939,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -930,14 +948,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -954,7 +972,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -987,7 +1005,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1020,7 +1038,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1036,7 +1054,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1046,14 +1064,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1062,14 +1080,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1086,7 +1104,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1102,7 +1120,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1112,14 +1130,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1128,14 +1146,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1152,7 +1170,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1178,14 +1196,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1194,14 +1212,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1211,14 +1229,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,14 +1245,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1244,14 +1262,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,31 +1278,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,31 +1311,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1326,31 +1344,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1359,20 +1377,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1383,42 +1401,108 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>59</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>66</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>865</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>73</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>74</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>75</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>66</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1019</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>81</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1591,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>32.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
   </si>
   <si>
@@ -248,7 +257,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 5:35 PM</t>
+    <t>Friday, 25 July, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -906,7 +915,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -915,14 +924,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -932,14 +941,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -948,14 +957,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -972,7 +981,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -988,7 +997,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -998,14 +1007,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,14 +1023,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1031,14 +1040,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1047,14 +1056,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1071,7 +1080,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1087,7 +1096,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,14 +1106,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,14 +1122,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1137,7 +1146,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1153,7 +1162,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,14 +1172,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1179,14 +1188,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1203,7 +1212,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1219,7 +1228,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,14 +1238,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,14 +1254,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1262,14 +1271,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1285,7 +1294,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,14 +1304,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1311,14 +1320,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1337,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,31 +1353,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,31 +1386,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,20 +1419,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1434,7 +1443,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1450,13 +1459,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1467,42 +1476,75 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1019</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>79</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>22</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>69</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>80</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1064</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>82</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>83</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>84</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1643,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -47,45 +47,60 @@
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CINNARIZINE 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CINNARIZINE 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
     <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
   </si>
   <si>
@@ -197,7 +212,16 @@
     <t>52.0000</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8509:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -251,13 +275,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 5:47 PM</t>
+    <t>Friday, 25 July, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -915,7 +936,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -924,14 +945,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -941,14 +962,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -957,14 +978,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -974,14 +995,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -990,7 +1011,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1007,14 +1028,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1023,7 +1044,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1040,14 +1061,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1056,14 +1077,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1073,14 +1094,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1089,14 +1110,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1106,14 +1127,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1122,14 +1143,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1139,14 +1160,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1155,14 +1176,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1172,14 +1193,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1188,14 +1209,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1205,14 +1226,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1221,14 +1242,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1238,14 +1259,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1254,7 +1275,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1271,14 +1292,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1287,14 +1308,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1304,14 +1325,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1320,14 +1341,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1337,14 +1358,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,7 +1398,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1399,18 +1420,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1419,31 +1440,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1452,31 +1473,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1485,66 +1506,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>77</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>85</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1064</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>82</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>83</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>84</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>77</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>69</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1145.6700000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>90</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>91</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1648,10 +1735,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -65,18 +80,12 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -143,6 +152,15 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -185,6 +203,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -278,7 +305,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 6:11 PM</t>
+    <t>Friday, 25 July, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -985,7 +1012,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -995,14 +1022,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1011,14 +1038,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1035,7 +1062,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1044,14 +1071,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1061,14 +1088,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1084,7 +1111,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1094,14 +1121,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1110,14 +1137,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1127,14 +1154,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1143,14 +1170,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1167,7 +1194,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1183,7 +1210,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,14 +1220,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1209,14 +1236,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,14 +1253,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1242,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1286,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,14 +1302,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1292,14 +1319,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,14 +1352,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1358,14 +1385,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1374,14 +1401,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1398,7 +1425,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1414,7 +1441,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1424,14 +1451,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1457,14 +1484,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1473,31 +1500,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,31 +1533,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1539,31 +1566,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1572,66 +1599,165 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1145.6700000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>89</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>90</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>86</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>91</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>21</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>86</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>86</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>78</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1532.4300000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1745,10 +1871,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>32.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
   </si>
   <si>
@@ -119,6 +128,18 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -182,6 +203,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -239,6 +269,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -302,10 +341,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Friday, 25 July, 2025 6:34 PM</t>
+    <t>Friday, 25 July, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1012,7 +1048,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1029,7 +1065,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1038,14 +1074,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1078,7 +1114,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1088,14 +1124,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1111,7 +1147,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1128,7 +1164,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1144,7 +1180,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1190,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1206,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1187,14 +1223,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1203,14 +1239,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1227,7 +1263,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1243,7 +1279,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1289,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,14 +1305,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1293,7 +1329,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,7 +1362,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1392,7 +1428,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1408,7 +1444,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1425,7 +1461,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1441,7 +1477,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,14 +1487,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1467,7 +1503,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1484,14 +1520,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,14 +1553,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,14 +1586,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,14 +1602,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1619,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,31 +1635,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,31 +1668,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,31 +1701,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,66 +1734,198 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>97</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1532.4300000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>98</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>102</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>103</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>99</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>104</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>106</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>21</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>99</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>107</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>109</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>99</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>91</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1720.75</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>110</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +2054,30 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
     <t>73.2600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -152,6 +161,27 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -203,6 +233,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -239,7 +278,7 @@
     <t>136.50</t>
   </si>
   <si>
-    <t>136.5000</t>
+    <t>181.5450</t>
   </si>
   <si>
     <t>TUSSKAN SYRUP 100 ML</t>
@@ -272,9 +311,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -341,7 +377,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 6:49 PM</t>
+    <t>Friday, 25 July, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1015,7 +1051,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1025,14 +1061,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1041,7 +1077,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1058,14 +1094,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1074,14 +1110,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1091,14 +1127,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1114,7 +1150,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1124,14 +1160,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1140,14 +1176,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1164,7 +1200,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1180,7 +1216,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1197,7 +1233,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1213,7 +1249,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1223,14 +1259,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1239,14 +1275,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1256,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1272,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1289,14 +1325,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1305,14 +1341,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1329,7 +1365,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1345,7 +1381,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1362,7 +1398,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1395,7 +1431,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1411,7 +1447,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1428,7 +1464,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1444,7 +1480,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1461,7 +1497,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1494,7 +1530,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1510,7 +1546,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1527,7 +1563,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1543,7 +1579,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1560,7 +1596,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1576,7 +1612,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1586,14 +1622,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1602,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,14 +1655,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1635,14 +1671,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,14 +1688,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1668,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1685,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1701,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1718,14 +1754,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1734,14 +1770,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1751,14 +1787,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,31 +1803,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,31 +1836,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1833,31 +1869,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,66 +1902,198 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>109</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>110</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>111</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>112</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>114</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>115</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>111</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>116</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>118</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>24</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>111</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>119</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>121</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1720.75</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>110</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
         <v>111</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>112</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>103</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1897.895</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>122</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>123</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>124</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2074,10 +2242,30 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -377,7 +377,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 6:50 PM</t>
+    <t>Friday, 25 July, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -140,13 +140,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
@@ -164,9 +167,6 @@
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 6:51 PM</t>
+    <t>Friday, 25 July, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1299,7 +1299,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1308,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,11 +1325,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>28</v>
@@ -1341,14 +1341,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1381,7 +1381,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1728,7 +1728,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2063,7 +2063,7 @@
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="P39" s="13">
-        <v>1897.895</v>
+        <v>1913.7349999999999</v>
       </c>
       <c r="Q39" s="13"/>
     </row>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -272,6 +281,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -284,9 +302,6 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -305,9 +320,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -329,9 +341,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -377,7 +386,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 6:58 PM</t>
+    <t>Friday, 25 July, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1315,7 +1324,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,11 +1334,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>28</v>
@@ -1341,14 +1350,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1365,7 +1374,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1414,7 +1423,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,11 +1433,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1440,14 +1449,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1464,7 +1473,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1513,7 +1522,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1523,14 +1532,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1539,14 +1548,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1563,7 +1572,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1579,7 +1588,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1596,7 +1605,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1612,7 +1621,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1629,7 +1638,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1645,7 +1654,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1664,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,14 +1680,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1695,7 +1704,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1711,7 +1720,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1728,7 +1737,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1744,7 +1753,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,11 +1763,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,14 +1796,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,14 +1812,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,14 +1829,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,7 +1845,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1853,14 +1862,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,11 +1895,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -1902,14 +1911,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1919,14 +1928,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1935,31 +1944,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,31 +1977,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,28 +2010,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>28</v>
@@ -2034,66 +2043,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1913.7349999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>121</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>24</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>114</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>122</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c t="s" r="Q39" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>124</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>21</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>114</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>107</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1989.7349999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>125</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>126</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>127</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2262,10 +2337,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 7:09 PM</t>
+    <t>Friday, 25 July, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -251,13 +251,19 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
     <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
   </si>
   <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
@@ -1654,7 +1660,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1671,7 +1677,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1687,7 +1693,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1697,14 +1703,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1730,14 +1736,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1746,14 +1752,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1763,11 +1769,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -1779,14 +1785,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1796,14 +1802,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1812,14 +1818,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,14 +1835,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1845,14 +1851,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,11 +1868,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>28</v>
@@ -1878,14 +1884,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,14 +1901,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1928,14 +1934,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1951,7 +1957,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1961,14 +1967,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2010,28 +2016,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>28</v>
@@ -2043,31 +2049,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2076,31 +2082,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2109,66 +2115,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>21</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>116</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>109</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1989.7349999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>125</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>126</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2047.7349999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>127</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>128</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>129</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2347,10 +2386,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 7:15 PM</t>
+    <t>Friday, 25 July, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 7:40 PM</t>
+    <t>Friday, 25 July, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -194,13 +194,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
+    <t>7.6800</t>
   </si>
   <si>
     <t>FERRODEP SYRUP 150 ML</t>
@@ -1479,7 +1479,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="42" ht="25.5" customHeight="1">
       <c r="P42" s="13">
-        <v>2047.7349999999999</v>
+        <v>2051.5749999999998</v>
       </c>
       <c r="Q42" s="13"/>
     </row>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 7:48 PM</t>
+    <t>Friday, 25 July, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>122.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -1924,7 +1933,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2040,7 +2049,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2056,21 +2065,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2082,31 +2091,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,20 +2124,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2139,7 +2148,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2155,59 +2164,92 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>129</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>21</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>119</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>112</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2051.5749999999998</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>127</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>128</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>129</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2226.5749999999998</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>130</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>131</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>132</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2391,10 +2433,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 7:54 PM</t>
+    <t>Friday, 25 July, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>R.M. SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -401,7 +410,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 7:55 PM</t>
+    <t>Friday, 25 July, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1711,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1716,7 +1725,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1749,10 +1758,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1785,7 +1794,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,7 +1820,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1834,7 +1843,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1867,7 +1876,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,11 +1919,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>28</v>
@@ -1933,7 +1942,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1966,7 +1975,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1999,7 +2008,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2082,7 +2091,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2098,21 +2107,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>28</v>
@@ -2124,31 +2133,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2157,20 +2166,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2181,7 +2190,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2197,59 +2206,92 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>132</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>21</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>122</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>115</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2226.5749999999998</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>130</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>131</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>132</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2281.5749999999998</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>133</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>134</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>135</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2438,10 +2480,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -221,6 +221,18 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -320,12 +332,6 @@
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -338,12 +344,12 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -377,9 +383,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -410,7 +413,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 7:56 PM</t>
+    <t>Friday, 25 July, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,13 +1582,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1596,7 +1599,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1612,7 +1615,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1622,14 +1625,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1638,14 +1641,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1655,14 +1658,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1671,7 +1674,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1688,11 +1691,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1704,14 +1707,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1721,14 +1724,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1737,14 +1740,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1754,11 +1757,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>28</v>
@@ -1770,14 +1773,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,14 +1790,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1810,7 +1813,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,14 +1823,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1836,14 +1839,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,11 +1856,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -1869,14 +1872,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1886,14 +1889,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1905,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1922,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1935,14 +1938,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,11 +1955,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>28</v>
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1985,11 +1988,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>28</v>
@@ -2001,14 +2004,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2018,14 +2021,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2051,14 +2054,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2074,7 +2077,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2084,14 +2087,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,14 +2103,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2117,14 +2120,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2133,28 +2136,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2166,31 +2169,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2199,31 +2202,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2232,66 +2235,99 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>133</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>21</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>71</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>117</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2281.5749999999998</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>133</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2429.5749999999998</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
         <v>134</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
         <v>135</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>136</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2485,10 +2521,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 7:57 PM</t>
+    <t>Friday, 25 July, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -413,7 +422,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:00 PM</t>
+    <t>Friday, 25 July, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1615,7 +1624,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1665,7 +1674,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1681,7 +1690,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1698,7 +1707,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1747,7 +1756,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1764,7 +1773,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1780,7 +1789,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1794,7 +1803,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -1806,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1827,10 +1836,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1839,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1863,7 +1872,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1879,7 +1888,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,7 +1898,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1912,7 +1921,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,14 +1931,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1945,7 +1954,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1955,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1971,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1988,11 +1997,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>28</v>
@@ -2004,14 +2013,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2021,11 +2030,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>28</v>
@@ -2044,7 +2053,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2061,7 +2070,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2077,7 +2086,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2087,14 +2096,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2120,14 +2129,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,14 +2145,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2160,7 +2169,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2176,21 +2185,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>28</v>
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2259,7 +2268,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2275,7 +2284,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2285,49 +2294,82 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>21</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>71</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>120</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2429.5749999999998</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>134</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>135</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>136</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2465.5749999999998</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>137</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>138</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>139</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2526,10 +2568,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:04 PM</t>
+    <t>Friday, 25 July, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -326,6 +326,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -422,7 +431,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:12 PM</t>
+    <t>Friday, 25 July, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1954,7 +1963,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1971,7 +1980,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1987,7 +1996,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,11 +2039,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>28</v>
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2063,11 +2072,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>28</v>
@@ -2086,7 +2095,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2202,7 +2211,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2218,21 +2227,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2301,7 +2310,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2327,49 +2336,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>21</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>71</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>123</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2465.5749999999998</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>137</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>138</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>139</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2478.4450000000002</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>140</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>141</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>142</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2573,10 +2615,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>181.5450</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -431,7 +440,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:13 PM</t>
+    <t>Friday, 25 July, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2039,14 +2048,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,11 +2081,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>28</v>
@@ -2088,14 +2097,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,11 +2114,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2128,7 +2137,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2145,7 +2154,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2161,7 +2170,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2171,14 +2180,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2244,7 +2253,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2260,21 +2269,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2343,7 +2352,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2359,7 +2368,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,49 +2378,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>21</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>71</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>126</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2478.4450000000002</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>140</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>141</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>142</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2501.4450000000002</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>143</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>144</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>145</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2620,10 +2662,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -71,6 +71,21 @@
     <t>73.2600</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>-12.4800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -86,6 +101,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>25.7300</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -101,9 +128,6 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -440,7 +464,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:14 PM</t>
+    <t>Friday, 25 July, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1204,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1190,14 +1214,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1206,14 +1230,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1223,11 +1247,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1239,14 +1263,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1256,14 +1280,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1272,14 +1296,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1289,14 +1313,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1305,14 +1329,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1322,14 +1346,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,14 +1362,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1355,14 +1379,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1378,7 +1402,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1395,7 +1419,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1428,7 +1452,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1437,14 +1461,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,14 +1478,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1487,14 +1511,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1520,14 +1544,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1536,14 +1560,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1553,14 +1577,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1569,14 +1593,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1586,14 +1610,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1602,31 +1626,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,14 +1676,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1668,31 +1692,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,14 +1758,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,11 +1775,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1767,14 +1791,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,14 +1808,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1800,14 +1824,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,14 +1841,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,14 +1874,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,14 +1890,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,14 +1907,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,14 +1923,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,14 +1940,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1949,14 +1973,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,14 +1989,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +2006,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,14 +2039,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,14 +2055,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2048,11 +2072,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2064,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,14 +2105,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,14 +2121,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2114,14 +2138,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2130,14 +2154,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2147,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,14 +2187,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2180,14 +2204,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2196,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,14 +2237,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,14 +2253,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2246,14 +2270,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2262,14 +2286,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2279,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,31 +2319,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,20 +2352,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2352,7 +2376,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2368,24 +2392,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2394,66 +2418,132 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2501.4450000000002</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>143</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>144</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>145</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>147</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>29</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>79</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>148</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>150</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>26</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>79</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>134</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2514.6950000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>152</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2667,10 +2757,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -269,13 +269,13 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
@@ -323,9 +323,6 @@
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>237.00</t>
   </si>
   <si>
@@ -464,7 +461,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:22 PM</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Friday, 25 July, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1765,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,14 +1775,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1963,7 +1963,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>37</v>
@@ -2022,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>37</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>54</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2138,11 +2138,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>37</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>37</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2270,11 +2270,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>41</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2319,14 +2319,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>37</v>
@@ -2385,14 +2385,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>37</v>
@@ -2418,14 +2418,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2468,11 +2468,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>37</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2501,19 +2501,19 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
       <c r="P50" s="13">
-        <v>2514.6950000000002</v>
+        <v>2556.6950000000002</v>
       </c>
       <c r="Q50" s="13"/>
     </row>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:23 PM</t>
+    <t>Friday, 25 July, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
     <t>KATIVAROX SYRUP</t>
   </si>
   <si>
@@ -428,13 +437,13 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t>50.0000</t>
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
@@ -464,7 +473,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:24 PM</t>
+    <t>Friday, 25 July, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,15 +1714,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>37</v>
@@ -1725,20 +1734,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1765,7 +1774,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1782,7 +1791,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,14 +1817,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1831,7 +1840,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1848,7 +1857,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1897,7 +1906,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1914,7 +1923,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1930,7 +1939,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1944,7 +1953,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>37</v>
@@ -1956,14 +1965,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +1982,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1996,7 +2005,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2013,7 +2022,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,7 +2038,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,7 +2048,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2062,7 +2071,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,14 +2081,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2095,7 +2104,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2112,7 +2121,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2128,7 +2137,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2145,7 +2154,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2171,14 +2180,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,11 +2213,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>37</v>
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>37</v>
@@ -2260,7 +2269,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2277,7 +2286,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2293,7 +2302,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2336,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,14 +2361,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2376,7 +2385,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2392,21 +2401,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>37</v>
@@ -2418,28 +2427,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2451,20 +2460,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2475,7 +2484,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2491,59 +2500,92 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>26</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>82</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>136</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2556.6950000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>151</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>152</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>153</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2940.6950000000002</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>154</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>155</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>156</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2767,10 +2809,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -473,7 +485,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:29 PM</t>
+    <t>Friday, 25 July, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1642,7 +1654,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1652,14 +1664,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1668,7 +1680,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1685,11 +1697,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>37</v>
@@ -1701,7 +1713,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1718,11 +1730,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>37</v>
@@ -1734,7 +1746,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1747,7 +1759,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1774,21 +1786,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>37</v>
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,14 +1829,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1840,7 +1852,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1857,7 +1869,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1899,7 +1911,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1916,11 +1928,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1982,11 +1994,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>37</v>
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2015,14 +2027,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2081,11 +2093,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>37</v>
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2126,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2147,14 +2159,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,14 +2175,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,14 +2192,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2196,7 +2208,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2246,11 +2258,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>37</v>
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2279,11 +2291,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>37</v>
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,14 +2357,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2401,7 +2413,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2411,14 +2423,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,20 +2439,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2451,7 +2463,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2473,7 +2485,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2500,24 +2512,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2526,66 +2538,99 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>156</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>26</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>86</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>140</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2940.6950000000002</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>154</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>155</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>156</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2957.9749999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>158</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>159</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>160</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2814,10 +2859,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:31 PM</t>
+    <t>Friday, 25 July, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>32.6700</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
   </si>
   <si>
     <t>CINNARIZINE 75MG 20 CAPS.</t>
@@ -1390,7 +1402,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1400,14 +1412,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1416,14 +1428,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,11 +1445,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>37</v>
@@ -1449,14 +1461,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1473,7 +1485,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1482,14 +1494,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1506,7 +1518,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1515,14 +1527,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1555,7 +1567,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1565,14 +1577,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1581,14 +1593,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1598,11 +1610,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1614,14 +1626,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1638,7 +1650,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1687,7 +1699,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1709,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1713,7 +1725,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1730,11 +1742,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>37</v>
@@ -1746,7 +1758,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1763,11 +1775,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>37</v>
@@ -1779,7 +1791,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1792,7 +1804,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1819,21 +1831,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>37</v>
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1885,7 +1897,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1902,7 +1914,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1928,14 +1940,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1944,7 +1956,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1961,11 +1973,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1994,14 +2006,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2027,11 +2039,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>37</v>
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,14 +2105,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,11 +2138,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>37</v>
@@ -2142,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,14 +2204,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,14 +2237,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,7 +2253,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2258,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,14 +2286,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,11 +2303,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>37</v>
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2324,11 +2336,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>37</v>
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2373,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,14 +2402,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,14 +2435,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2446,7 +2458,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2472,20 +2484,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2496,7 +2508,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2518,7 +2530,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2545,24 +2557,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2571,66 +2583,99 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2957.9749999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>158</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>159</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>160</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>26</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>90</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>144</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>3001.9749999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>162</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>163</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>164</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2864,10 +2909,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
   </si>
   <si>
@@ -278,6 +287,15 @@
     <t>359.0000</t>
   </si>
   <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KATIVAROX SYRUP</t>
   </si>
   <si>
@@ -311,6 +329,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -341,18 +368,9 @@
     <t>R.M. SOAP 80 GM</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -383,9 +401,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -398,6 +413,15 @@
     <t>181.5450</t>
   </si>
   <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -497,7 +521,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:33 PM</t>
+    <t>Friday, 25 July, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1468,7 +1492,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1485,7 +1509,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1501,7 +1525,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1511,14 +1535,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1527,14 +1551,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1544,14 +1568,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1567,7 +1591,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1577,11 +1601,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>37</v>
@@ -1593,14 +1617,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1617,7 +1641,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1633,7 +1657,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1666,7 +1690,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1676,14 +1700,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1692,14 +1716,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1709,11 +1733,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1725,14 +1749,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1749,7 +1773,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1837,15 +1861,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>37</v>
@@ -1857,14 +1881,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,11 +1898,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>37</v>
@@ -1890,20 +1914,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1914,7 +1938,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1923,14 +1947,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1940,11 +1964,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>37</v>
@@ -1956,14 +1980,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,14 +1997,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1996,7 +2020,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2013,7 +2037,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2062,7 +2086,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2076,10 +2100,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2088,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2105,11 +2129,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2121,7 +2145,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2138,11 +2162,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>37</v>
@@ -2154,14 +2178,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,11 +2195,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>37</v>
@@ -2187,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,11 +2228,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2261,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2253,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,14 +2294,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2286,14 +2310,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,14 +2327,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,14 +2360,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2359,7 +2383,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2392,7 +2416,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2409,7 +2433,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2425,7 +2449,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2435,14 +2459,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2501,11 +2525,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>37</v>
@@ -2517,31 +2541,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,31 +2574,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,31 +2607,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,66 +2640,198 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>157</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>158</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>96</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>159</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>161</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>3001.9749999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>162</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>96</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>163</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>29</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>96</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>166</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>26</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>96</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>152</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3146.9749999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>170</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>171</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>172</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2914,10 +3070,30 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:55 PM</t>
+    <t>Friday, 25 July, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -515,13 +515,22 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 8:56 PM</t>
+    <t>Friday, 25 July, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2779,7 +2788,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2789,49 +2798,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>26</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>96</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>152</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>58</v>
       </c>
     </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3146.9749999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>170</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>171</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>172</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3181.9749999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>173</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>174</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>175</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3090,10 +3132,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
@@ -182,6 +191,18 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -194,9 +215,6 @@
     <t>63.8400</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -347,6 +365,9 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -398,6 +419,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SIRDALUD 2MG 20 TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -422,6 +452,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -518,19 +557,16 @@
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>Friday, 25 July, 2025 9:13 PM</t>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>Friday, 25 July, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1221,7 +1257,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1237,7 +1273,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1247,14 +1283,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1263,14 +1299,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1280,14 +1316,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1296,14 +1332,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1313,14 +1349,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1329,14 +1365,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1353,7 +1389,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1362,14 +1398,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1379,14 +1415,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1395,14 +1431,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1412,11 +1448,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1428,14 +1464,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1445,14 +1481,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1461,14 +1497,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1485,7 +1521,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1501,7 +1537,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1518,7 +1554,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1534,7 +1570,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1551,7 +1587,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1567,7 +1603,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1577,14 +1613,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1593,14 +1629,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1610,14 +1646,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1626,14 +1662,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1643,14 +1679,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1659,14 +1695,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1676,14 +1712,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1692,14 +1728,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1716,7 +1752,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1732,7 +1768,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1742,14 +1778,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1758,14 +1794,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1775,14 +1811,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1791,14 +1827,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1808,14 +1844,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1824,14 +1860,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1848,7 +1884,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1864,7 +1900,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1881,7 +1917,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1897,7 +1933,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1914,7 +1950,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1930,24 +1966,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1956,14 +1992,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,14 +2009,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1989,20 +2025,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2013,7 +2049,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2022,14 +2058,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2039,14 +2075,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2055,14 +2091,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,14 +2108,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2095,7 +2131,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2112,7 +2148,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2128,7 +2164,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2145,7 +2181,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2161,24 +2197,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2194,7 +2230,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2204,14 +2240,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2220,14 +2256,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2237,11 +2273,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2253,14 +2289,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,14 +2306,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2293,7 +2329,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2303,14 +2339,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2319,14 +2355,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,11 +2372,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2352,14 +2388,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2369,14 +2405,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2385,14 +2421,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,14 +2438,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2418,14 +2454,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2435,14 +2471,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2451,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2468,14 +2504,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2491,7 +2527,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2501,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2517,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2534,14 +2570,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,14 +2586,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2567,14 +2603,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,14 +2619,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2600,11 +2636,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2616,14 +2652,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2633,14 +2669,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2656,7 +2692,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2666,14 +2702,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2682,31 +2718,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,31 +2751,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,7 +2784,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2761,18 +2797,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2781,31 +2817,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2814,66 +2850,231 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>170</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>171</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>102</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>172</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3181.9749999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c t="s" r="Q58" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>174</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>175</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>102</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>176</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>178</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>32</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>102</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>179</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>181</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>34</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>102</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>62</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>29</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>102</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>165</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3436.9749999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>185</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>186</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>187</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3137,10 +3338,35 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -131,13 +143,10 @@
     <t>64.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>25.7400</t>
+    <t>51.4800</t>
   </si>
   <si>
     <t>BRUFEN 600MG 30 TAB</t>
@@ -224,6 +233,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -548,9 +566,6 @@
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -560,13 +575,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 9:15 PM</t>
+    <t>Friday, 25 July, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1417,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1415,14 +1427,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1438,7 +1450,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1448,14 +1460,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1464,14 +1476,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1481,14 +1493,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1514,14 +1526,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1554,7 +1566,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1570,7 +1582,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1587,7 +1599,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1603,7 +1615,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1620,7 +1632,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1636,7 +1648,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1646,14 +1658,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1679,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1719,7 +1731,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1735,7 +1747,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1778,11 +1790,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1818,7 +1830,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1834,7 +1846,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1877,14 +1889,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1910,14 +1922,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1950,7 +1962,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1983,7 +1995,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,7 +2028,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2038,18 +2050,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2091,20 +2103,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2115,7 +2127,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2174,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2197,24 +2209,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2256,28 +2268,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2296,7 +2308,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2428,7 +2440,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2461,7 +2473,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2478,7 +2490,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2494,7 +2506,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2593,7 +2605,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2610,7 +2622,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2626,7 +2638,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2643,7 +2655,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2659,7 +2671,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2791,7 +2803,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2841,7 +2853,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2857,7 +2869,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2883,28 +2895,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -2916,31 +2928,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2949,31 +2961,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,31 +2994,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3015,66 +3027,132 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>184</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3436.9749999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>185</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>186</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>38</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>108</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>65</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>187</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>29</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>108</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>171</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3558.7150000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>189</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>190</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>191</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3363,10 +3441,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 9:38 PM</t>
+    <t>Friday, 25 July, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -203,382 +203,391 @@
     <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>35.00</t>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>FERRODEP SYRUP 150 ML</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>R.M. SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SIRDALUD 2MG 20 TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>181.5450</t>
+  </si>
+  <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8509:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>FERRODEP SYRUP 150 ML</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KATIVAROX SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>R.M. SOAP 80 GM</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SIRDALUD 2MG 20 TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>181.5450</t>
-  </si>
-  <si>
-    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 300MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8509:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>جل هير كود 185 مل</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 9:39 PM</t>
+    <t>Friday, 25 July, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1698,7 +1707,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1707,14 +1716,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1724,14 +1733,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1740,7 +1749,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1757,11 +1766,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>34</v>
@@ -1773,7 +1782,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1790,11 +1799,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1806,14 +1815,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1823,11 +1832,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -1839,14 +1848,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1856,11 +1865,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1889,11 +1898,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1955,11 +1964,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1971,7 +1980,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1988,11 +1997,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>34</v>
@@ -2004,7 +2013,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2021,11 +2030,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>34</v>
@@ -2037,7 +2046,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2054,11 +2063,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>34</v>
@@ -2070,7 +2079,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2087,11 +2096,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>34</v>
@@ -2103,7 +2112,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2116,15 +2125,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2136,7 +2145,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2153,11 +2162,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>34</v>
@@ -2169,7 +2178,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2202,7 +2211,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2219,11 +2228,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>34</v>
@@ -2235,7 +2244,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2252,11 +2261,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2268,20 +2277,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2289,7 +2298,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2301,7 +2310,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2318,11 +2327,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2334,7 +2343,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2351,11 +2360,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2367,7 +2376,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2400,7 +2409,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2421,7 +2430,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>34</v>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2549,11 +2558,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,11 +2591,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2598,7 +2607,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2631,7 +2640,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2648,11 +2657,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2664,7 +2673,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2681,11 +2690,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2697,7 +2706,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2714,11 +2723,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2747,11 +2756,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2763,7 +2772,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2780,11 +2789,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,11 +2822,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -2829,7 +2838,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2846,11 +2855,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>47</v>
@@ -2862,7 +2871,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2883,7 +2892,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2912,11 +2921,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,11 +2954,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -2961,28 +2970,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -2994,28 +3003,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>32</v>
@@ -3027,7 +3036,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3040,15 +3049,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3060,7 +3069,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3073,7 +3082,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3081,7 +3090,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>34</v>
@@ -3093,7 +3102,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3106,29 +3115,29 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
       <c r="P65" s="13">
-        <v>3558.7150000000001</v>
+        <v>3544.7150000000001</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c t="s" r="A66" s="14">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3136,13 +3145,13 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c t="s" r="G66" s="15">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
       <c t="s" r="K66" s="17">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 9:45 PM</t>
+    <t>Friday, 25 July, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -227,9 +239,6 @@
     <t>63.8400</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -293,13 +302,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>3:6</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>11.5200</t>
   </si>
   <si>
     <t>FERRODEP SYRUP 150 ML</t>
@@ -380,6 +389,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -401,6 +419,12 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>PROTOFIX 40MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -587,7 +611,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 9:56 PM</t>
+    <t>Friday, 25 July, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1740,7 +1764,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1749,14 +1773,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1773,7 +1797,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1789,7 +1813,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1806,7 +1830,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1822,7 +1846,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1832,14 +1856,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1872,7 +1896,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1888,7 +1912,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1921,7 +1945,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1931,14 +1955,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1964,11 +1988,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2004,7 +2028,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2125,15 +2149,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2145,20 +2169,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2185,7 +2209,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2202,7 +2226,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2211,14 +2235,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,14 +2252,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2251,7 +2275,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2284,21 +2308,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2310,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2351,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,28 +2367,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2383,7 +2407,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,14 +2417,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,14 +2433,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,11 +2450,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2442,14 +2466,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,11 +2483,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2475,7 +2499,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2492,11 +2516,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2508,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,11 +2549,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>34</v>
@@ -2541,14 +2565,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2582,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,14 +2598,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,14 +2615,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2614,7 +2638,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2648,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2647,7 +2671,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2680,7 +2704,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,11 +2714,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2706,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,11 +2780,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2772,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,14 +2813,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,14 +2829,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2855,14 +2879,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,7 +2895,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2888,14 +2912,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2911,7 +2935,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2921,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,14 +2961,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2954,14 +2978,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2970,31 +2994,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,28 +3027,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>32</v>
@@ -3036,28 +3060,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3069,31 +3093,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3109,59 +3133,158 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>191</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3544.7150000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>192</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>193</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>194</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>32</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>113</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>80</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>38</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>113</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>65</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>29</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>113</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>181</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3605.1849999999999</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>200</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>201</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>202</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3460,10 +3583,25 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -611,7 +611,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 10:04 PM</t>
+    <t>Friday, 25 July, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -143,6 +143,27 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -161,6 +182,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>CIDOPHAGE 500MG 10 TAB</t>
   </si>
   <si>
@@ -182,6 +212,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
@@ -218,9 +257,6 @@
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -380,6 +416,9 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -482,6 +521,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -491,6 +539,15 @@
     <t>181.5450</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
   </si>
   <si>
@@ -512,12 +569,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -560,6 +611,9 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -572,13 +626,13 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>25.00</t>
   </si>
   <si>
-    <t>50.0000</t>
+    <t>75.0000</t>
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
@@ -608,10 +662,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>Friday, 25 July, 2025 10:17 PM</t>
+    <t>ماكنيه حلاقه ناسيت</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Friday, 25 July, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1516,7 +1576,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1526,14 +1586,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1542,14 +1602,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1559,14 +1619,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1575,14 +1635,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1592,14 +1652,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1608,14 +1668,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1632,7 +1692,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1648,7 +1708,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1665,7 +1725,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1681,7 +1741,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1691,14 +1751,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1707,14 +1767,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1731,7 +1791,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1740,14 +1800,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1757,14 +1817,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1773,14 +1833,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1790,14 +1850,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1806,14 +1866,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1823,11 +1883,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>34</v>
@@ -1839,14 +1899,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1856,14 +1916,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1872,14 +1932,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1889,14 +1949,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1905,14 +1965,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1922,14 +1982,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1938,14 +1998,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1955,14 +2015,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1971,14 +2031,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1988,14 +2048,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2004,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2021,14 +2081,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2037,14 +2097,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2054,14 +2114,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2070,14 +2130,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2087,14 +2147,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2103,14 +2163,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2120,14 +2180,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2136,14 +2196,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2160,7 +2220,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2182,15 +2242,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>34</v>
@@ -2202,14 +2262,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2219,11 +2279,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>34</v>
@@ -2235,14 +2295,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2252,14 +2312,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>122</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2268,14 +2328,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,11 +2345,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2301,31 +2361,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2334,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2351,11 +2411,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2367,31 +2427,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2400,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2417,11 +2477,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2440,7 +2500,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2454,7 +2514,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2466,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,11 +2543,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2499,7 +2559,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2516,11 +2576,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2532,31 +2592,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2565,14 +2625,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,11 +2642,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2598,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,11 +2675,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>34</v>
@@ -2631,14 +2691,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2648,14 +2708,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2664,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2681,11 +2741,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2704,7 +2764,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2714,14 +2774,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2730,14 +2790,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,14 +2807,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2763,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2780,11 +2840,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2796,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2813,14 +2873,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2829,7 +2889,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2846,14 +2906,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2862,14 +2922,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2879,14 +2939,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2902,7 +2962,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2912,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2928,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2945,14 +3005,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2961,14 +3021,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2994,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3011,14 +3071,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3027,14 +3087,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3044,14 +3104,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3060,14 +3120,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,14 +3137,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3100,24 +3160,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,31 +3186,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3159,28 +3219,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3192,31 +3252,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3225,7 +3285,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3238,53 +3298,350 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>197</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>13</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>198</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3605.1849999999999</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c t="s" r="Q68" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>200</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>45</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>13</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>14</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>201</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>163</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>13</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>202</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>204</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>205</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>125</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>206</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>209</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>125</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>210</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>32</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>125</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>92</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>214</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>38</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>125</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>78</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>216</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>29</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>125</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>198</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>32</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>125</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>218</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4047.5450000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>220</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>221</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>222</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3598,10 +3955,55 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -464,6 +464,12 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PROTOFIX 40MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -635,18 +641,21 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -656,7 +665,13 @@
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
-    <t>35.0000</t>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -671,7 +686,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 10:48 PM</t>
+    <t>Friday, 25 July, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2698,7 +2713,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,11 +2789,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,11 +2888,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,11 +2921,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -2922,14 +2937,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,14 +2954,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2972,11 +2987,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,7 +3135,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3137,11 +3152,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3153,7 +3168,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3203,11 +3218,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3236,11 +3251,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3269,14 +3284,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,14 +3300,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3302,14 +3317,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3325,7 +3340,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3417,31 +3432,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3500,11 +3515,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>34</v>
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3533,14 +3548,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3589,7 +3604,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3599,49 +3614,148 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4047.5450000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>218</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>29</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>125</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>219</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>220</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c t="s" r="Q77" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>221</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>29</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>125</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>200</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>222</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>32</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>125</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>223</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4151.5450000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>225</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>226</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>227</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4000,10 +4114,25 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
@@ -416,6 +425,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>LC NATURALS WHITENING SERUM</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>340.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -527,6 +545,12 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -686,7 +710,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 10:51 PM</t>
+    <t>Friday, 25 July, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2389,15 +2413,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2409,20 +2433,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2449,7 +2473,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2466,7 +2490,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,14 +2499,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2492,14 +2516,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2508,28 +2532,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2541,14 +2565,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,11 +2582,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2581,7 +2605,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2614,21 +2638,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2640,14 +2664,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2681,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,31 +2697,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2706,14 +2730,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2739,14 +2763,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2756,14 +2780,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2772,14 +2796,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,11 +2813,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -2805,14 +2829,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2838,14 +2862,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2855,14 +2879,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2871,14 +2895,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,11 +2912,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2911,7 +2935,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,14 +2945,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2944,7 +2968,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2977,7 +3001,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2987,14 +3011,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3044,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,14 +3060,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,14 +3077,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3076,7 +3100,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,14 +3110,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3102,14 +3126,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3143,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3159,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,14 +3176,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3168,14 +3192,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,11 +3209,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3201,14 +3225,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,11 +3242,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3234,14 +3258,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3251,14 +3275,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,14 +3291,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,14 +3308,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3300,14 +3324,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3317,14 +3341,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,7 +3357,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3350,14 +3374,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3373,7 +3397,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3383,14 +3407,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3399,14 +3423,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3416,14 +3440,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3432,14 +3456,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3449,14 +3473,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3478,7 +3502,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3489,7 +3513,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3505,24 +3529,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,31 +3555,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,31 +3588,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3597,20 +3621,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3618,7 +3642,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>34</v>
@@ -3630,31 +3654,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3663,31 +3687,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>207</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3696,66 +3720,165 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4151.5450000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>225</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>226</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>29</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>128</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>227</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>29</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>128</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>208</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>230</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>32</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>128</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>231</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4811.5450000000001</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>233</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>234</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>235</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4129,10 +4252,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -710,7 +710,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 10:52 PM</t>
+    <t>Friday, 25 July, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -239,6 +239,18 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
   </si>
   <si>
@@ -338,13 +350,16 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:6</t>
+    <t>3:5</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>11.5200</t>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>FERRODEP SYRUP 150 ML</t>
@@ -407,9 +422,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -422,9 +434,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>LC NATURALS WHITENING SERUM</t>
   </si>
   <si>
@@ -437,6 +446,9 @@
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>77.2200</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -701,6 +713,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>ماكنيه حلاقه ناسيت</t>
   </si>
   <si>
@@ -710,7 +725,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:00 PM</t>
+    <t>Friday, 25 July, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1962,7 +1977,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1995,7 +2010,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2028,7 +2043,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2044,7 +2059,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2054,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2127,7 +2142,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2143,7 +2158,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2169,7 +2184,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2186,11 +2201,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2202,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2226,7 +2241,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2259,7 +2274,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2275,7 +2290,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2285,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2301,7 +2316,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2318,11 +2333,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>34</v>
@@ -2334,7 +2349,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2351,11 +2366,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>34</v>
@@ -2367,7 +2382,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2384,11 +2399,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2400,7 +2415,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2417,11 +2432,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2433,7 +2448,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2446,15 +2461,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2466,28 +2481,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>34</v>
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>137</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2539,13 +2554,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2556,7 +2571,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2572,24 +2587,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2598,7 +2613,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2615,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2697,31 +2712,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2730,28 +2745,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2780,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2813,11 +2828,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -2829,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2912,11 +2927,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2961,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3011,11 +3026,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3044,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3242,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3291,7 +3306,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3308,11 +3323,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3324,7 +3339,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3374,11 +3389,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3407,11 +3422,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>34</v>
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3456,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3473,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3529,7 +3544,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3539,14 +3554,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3555,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3588,20 +3603,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3612,7 +3627,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3634,18 +3649,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3654,31 +3669,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3687,31 +3702,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3720,28 +3735,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3753,31 +3768,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3786,7 +3801,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3799,18 +3814,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>215</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3819,66 +3834,99 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4811.5450000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>233</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>234</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>235</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>32</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>133</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>236</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4867.875</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>238</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>239</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>240</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4267,10 +4315,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:02 PM</t>
+    <t>Friday, 25 July, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:07 PM</t>
+    <t>Friday, 25 July, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -266,6 +266,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -590,6 +596,9 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
+  </si>
+  <si>
     <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
   </si>
   <si>
@@ -713,7 +722,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>ماكنيه حلاقه ناسيت</t>
@@ -725,7 +734,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:09 PM</t>
+    <t>Friday, 25 July, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2035,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2078,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,14 +2111,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,7 +2226,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2234,11 +2243,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,7 +2358,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2366,11 +2375,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>34</v>
@@ -2382,7 +2391,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2399,11 +2408,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2415,7 +2424,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2494,15 +2503,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>34</v>
@@ -2514,24 +2523,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2554,7 +2563,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,31 +2589,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,31 +2622,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,31 +2754,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,28 +2787,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2851,7 +2860,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>34</v>
@@ -2884,7 +2893,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2969,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,11 +3068,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3101,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3148,7 +3157,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3348,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,7 +3381,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,11 +3464,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,31 +3645,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,28 +3678,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>34</v>
@@ -3702,28 +3711,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>54</v>
@@ -3735,28 +3744,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3768,31 +3777,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3808,24 +3817,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,31 +3843,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>234</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,66 +3876,132 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>236</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>29</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>135</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>215</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>237</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4867.875</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>238</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>32</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>135</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>239</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>240</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4924.6350000000002</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>241</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>242</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>243</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4320,10 +4395,20 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>85.8000</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
@@ -734,7 +743,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:11 PM</t>
+    <t>Friday, 25 July, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1903,7 +1912,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1936,7 +1945,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1953,7 +1962,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2078,14 +2087,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2101,7 +2110,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2151,7 +2160,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2184,7 +2193,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2250,7 +2259,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2536,15 +2545,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2556,28 +2565,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2629,13 +2638,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2646,7 +2655,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2662,24 +2671,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,7 +2697,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2761,7 +2770,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2794,24 +2803,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2820,28 +2829,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2860,7 +2869,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2874,10 +2883,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2903,11 +2912,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2959,7 +2968,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,11 +3011,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3075,7 +3084,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3091,7 +3100,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,7 +3110,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3124,7 +3133,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,7 +3143,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3157,7 +3166,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3167,14 +3176,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,14 +3209,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3256,7 +3265,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3273,7 +3282,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3289,7 +3298,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3306,7 +3315,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3322,7 +3331,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3348,7 +3357,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3365,11 +3374,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3388,7 +3397,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3405,7 +3414,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3431,11 +3440,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3447,7 +3456,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3464,14 +3473,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3497,11 +3506,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3530,11 +3539,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3553,7 +3562,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3570,7 +3579,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3586,7 +3595,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3596,14 +3605,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3718,24 +3727,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,31 +3753,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3784,24 +3793,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3810,31 +3819,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3843,28 +3852,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>34</v>
@@ -3876,31 +3885,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3922,18 +3931,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>237</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3942,66 +3951,99 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>240</v>
       </c>
-      <c t="s" r="Q85" s="12">
-        <v>34</v>
-      </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4924.6350000000002</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>241</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>32</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>138</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>242</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>243</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4993.9350000000004</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>244</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>245</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>246</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4405,10 +4447,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -476,237 +488,237 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>R.M. SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SIRDALUD 2MG 20 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>181.5450</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
+  </si>
+  <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 300MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8509:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>R.M. SOAP 80 GM</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SIRDALUD 2MG 20 TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>181.5450</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
-  </si>
-  <si>
-    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 300MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8509:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -743,7 +755,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:14 PM</t>
+    <t>Friday, 25 July, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1681,7 +1693,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1691,14 +1703,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1707,14 +1719,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1724,14 +1736,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1740,14 +1752,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1757,14 +1769,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1780,7 +1792,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1790,14 +1802,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1830,7 +1842,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1846,7 +1858,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1856,14 +1868,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1889,14 +1901,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1905,7 +1917,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1922,14 +1934,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1938,14 +1950,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1955,11 +1967,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1988,14 +2000,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2028,7 +2040,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2061,7 +2073,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2087,14 +2099,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2160,7 +2172,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2176,7 +2188,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2186,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2202,14 +2214,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2259,7 +2271,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2275,7 +2287,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2301,7 +2313,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2318,11 +2330,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2358,7 +2370,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2391,7 +2403,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2424,7 +2436,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2433,7 +2445,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2450,11 +2462,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2466,7 +2478,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2483,11 +2495,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2499,7 +2511,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2516,11 +2528,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>34</v>
@@ -2532,7 +2544,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2549,11 +2561,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2565,7 +2577,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2578,7 +2590,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2605,21 +2617,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>34</v>
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2648,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2664,31 +2676,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2697,31 +2709,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2730,7 +2742,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2747,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2763,14 +2775,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2829,31 +2841,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2862,28 +2874,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2912,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2928,14 +2940,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2945,11 +2957,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3011,14 +3023,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3044,11 +3056,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3093,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3110,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3143,11 +3155,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3176,11 +3188,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3192,14 +3204,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3209,14 +3221,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3225,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3242,14 +3254,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3258,14 +3270,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3275,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3298,7 +3310,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3315,7 +3327,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3331,7 +3343,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3348,7 +3360,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3364,7 +3376,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3390,7 +3402,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3407,11 +3419,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3430,7 +3442,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3447,7 +3459,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3473,11 +3485,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3489,7 +3501,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3506,14 +3518,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3522,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3539,11 +3551,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3555,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3572,11 +3584,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>34</v>
@@ -3595,7 +3607,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3612,7 +3624,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3628,7 +3640,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3638,14 +3650,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3654,14 +3666,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3671,14 +3683,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3687,14 +3699,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3704,14 +3716,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3720,14 +3732,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3737,14 +3749,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3760,24 +3772,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3786,31 +3798,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3826,24 +3838,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3852,31 +3864,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3885,28 +3897,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>34</v>
@@ -3918,31 +3930,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3951,7 +3963,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3964,18 +3976,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>240</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3984,66 +3996,99 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4993.9350000000004</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>244</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>245</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>32</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>142</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>246</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5036.7749999999996</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>248</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>249</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>250</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4452,10 +4497,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -755,7 +755,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:15 PM</t>
+    <t>Friday, 25 July, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BIAPHINE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -434,6 +443,9 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>J.B.C CREAM 50 GM</t>
+  </si>
+  <si>
     <t>KATIVAROX SYRUP</t>
   </si>
   <si>
@@ -452,6 +464,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -461,6 +482,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LC NATURALS WHITENING SERUM</t>
   </si>
   <si>
@@ -554,9 +584,6 @@
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -623,9 +650,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>THIOTACID 300MG 30 TAB.</t>
   </si>
   <si>
@@ -755,7 +779,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:23 PM</t>
+    <t>Friday, 25 July, 2025 11:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1717,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1703,14 +1727,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1719,14 +1743,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1743,7 +1767,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1759,7 +1783,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1769,14 +1793,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1785,14 +1809,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1802,14 +1826,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1818,14 +1842,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1842,7 +1866,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1858,7 +1882,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1868,14 +1892,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1884,14 +1908,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1908,7 +1932,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1924,7 +1948,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1941,7 +1965,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1974,7 +1998,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1990,7 +2014,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2023,7 +2047,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2040,7 +2064,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2056,7 +2080,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2090,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,14 +2106,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,14 +2123,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,14 +2156,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2188,7 +2212,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2238,7 +2262,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2254,7 +2278,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2271,7 +2295,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2287,7 +2311,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,14 +2321,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2313,14 +2337,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2337,7 +2361,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2386,7 +2410,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,14 +2420,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2623,15 +2647,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>34</v>
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,11 +2684,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2676,31 +2700,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,28 +2733,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2783,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,7 +2865,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2854,15 +2878,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -2874,31 +2898,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2914,7 +2938,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2931,7 +2955,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2947,7 +2971,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2973,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,11 +3014,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3006,28 +3030,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3046,7 +3070,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3072,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,11 +3113,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,14 +3146,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3179,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,11 +3212,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3221,11 +3245,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,7 +3278,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3287,7 +3311,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3310,7 +3334,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3344,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3343,7 +3367,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,14 +3377,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,11 +3410,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3402,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,11 +3443,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,11 +3542,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3534,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,11 +3575,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3657,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3673,7 +3697,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,14 +3707,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,7 +3756,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3749,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,31 +3822,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,31 +3855,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,31 +3888,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,28 +3921,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>34</v>
@@ -3930,31 +3954,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3963,31 +3987,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3996,31 +4020,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>244</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4042,53 +4066,185 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>247</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5036.7749999999996</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>38</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>146</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>92</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>248</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>29</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>146</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>249</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>250</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q89" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>251</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>29</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>146</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>229</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>253</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>32</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>146</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>254</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5276.7749999999996</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>256</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>257</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>258</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4502,10 +4658,30 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -386,102 +386,105 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:5</t>
+    <t>3:4</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>15.3600</t>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FERRODEP SYRUP 150 ML</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>J.B.C CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>FERRODEP SYRUP 150 ML</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>J.B.C CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>KATIVAROX SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -779,7 +782,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:27 PM</t>
+    <t>Friday, 25 July, 2025 11:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2823,7 +2826,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2832,7 +2835,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2865,7 +2868,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2882,11 +2885,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -2898,7 +2901,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2931,7 +2934,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2964,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2985,7 +2988,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2997,7 +3000,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3051,7 +3054,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3063,7 +3066,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3096,7 +3099,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3113,7 +3116,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3129,7 +3132,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3179,11 +3182,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3195,7 +3198,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3228,7 +3231,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3249,7 +3252,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3261,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3348,7 +3351,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3381,7 +3384,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3393,7 +3396,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3410,11 +3413,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3447,7 +3450,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3459,7 +3462,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3492,7 +3495,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3509,11 +3512,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>45</v>
@@ -3525,7 +3528,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3542,11 +3545,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3558,7 +3561,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3579,7 +3582,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3591,7 +3594,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3608,7 +3611,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3624,7 +3627,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3657,7 +3660,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3711,7 +3714,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>34</v>
@@ -3723,7 +3726,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3773,11 +3776,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>34</v>
@@ -3789,7 +3792,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>61</v>
@@ -3822,7 +3825,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3843,7 +3846,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3855,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,11 +3875,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>32</v>
@@ -3888,7 +3891,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3921,14 +3924,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3938,11 +3941,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>34</v>
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,11 +3974,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>61</v>
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4008,7 +4011,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>34</v>
@@ -4020,14 +4023,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,7 +4040,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4053,7 +4056,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>34</v>
@@ -4086,7 +4089,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4107,7 +4110,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4119,7 +4122,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4136,11 +4139,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>32</v>
@@ -4152,7 +4155,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,7 +4188,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4202,11 +4205,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>34</v>
@@ -4214,13 +4217,13 @@
     </row>
     <row r="92" ht="25.5" customHeight="1">
       <c r="P92" s="13">
-        <v>5276.7749999999996</v>
+        <v>5280.6149999999998</v>
       </c>
       <c r="Q92" s="13"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c t="s" r="A93" s="14">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4228,13 +4231,13 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c t="s" r="G93" s="15">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="16"/>
       <c t="s" r="K93" s="17">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="17"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -773,6 +782,12 @@
     <t>12:0</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ماكنيه حلاقه ناسيت</t>
   </si>
   <si>
@@ -782,7 +797,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:38 PM</t>
+    <t>Friday, 25 July, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2182,7 +2197,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2207,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2248,7 +2263,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2298,7 +2313,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2314,7 +2329,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2331,7 +2346,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2347,7 +2362,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2397,7 +2412,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2446,7 +2461,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2687,11 +2702,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2703,7 +2718,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2716,15 +2731,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>34</v>
@@ -2736,28 +2751,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2809,7 +2824,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2826,7 +2841,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2875,13 +2890,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2908,24 +2923,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,7 +2949,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2974,7 +2989,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3007,7 +3022,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3040,24 +3055,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,28 +3081,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3106,7 +3121,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3120,10 +3135,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,11 +3164,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3205,7 +3220,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3304,7 +3319,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,7 +3362,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3370,7 +3385,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3502,7 +3517,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3519,7 +3534,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3535,7 +3550,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3552,7 +3567,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3568,7 +3583,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,7 +3642,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3644,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3677,11 +3692,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3693,7 +3708,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3710,14 +3725,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,11 +3758,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>34</v>
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,11 +3791,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>34</v>
@@ -3799,7 +3814,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3816,7 +3831,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3832,7 +3847,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,14 +3923,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,14 +3956,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3964,24 +3979,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,31 +4005,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4036,18 +4051,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4063,24 +4078,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,28 +4104,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4122,31 +4137,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4168,18 +4183,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>253</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4188,66 +4203,132 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>256</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>34</v>
-      </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5280.6149999999998</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>257</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>32</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>149</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>248</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>258</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c t="s" r="Q92" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>259</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>32</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>149</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>260</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5442.6149999999998</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>263</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>264</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4681,10 +4762,20 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:40 PM</t>
+    <t>Friday, 25 July, 2025 11:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-25_00-00.xlsx
+++ b/DaySale_2025-07-25_00-00.xlsx
@@ -425,6 +425,9 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
@@ -797,7 +800,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 25 July, 2025 11:43 PM</t>
+    <t>Friday, 25 July, 2025 11:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2626,7 +2629,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2636,11 +2639,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2652,7 +2655,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2669,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>34</v>
@@ -2685,7 +2688,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2702,11 +2705,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2735,11 +2738,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>34</v>
@@ -2764,15 +2767,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2784,28 +2787,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>34</v>
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,14 +2837,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2850,14 +2853,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2870,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2883,14 +2886,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,14 +2903,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2916,28 +2919,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>34</v>
@@ -2949,31 +2952,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2982,7 +2985,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2999,14 +3002,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3015,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3035,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3048,14 +3051,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,31 +3084,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3121,21 +3124,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3167,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3180,14 +3183,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,11 +3200,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3213,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3246,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3286,7 +3289,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,11 +3299,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>34</v>
@@ -3319,7 +3322,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,11 +3398,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3444,14 +3447,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,14 +3464,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3497,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3530,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3563,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3596,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3649,7 +3652,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3662,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,7 +3678,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,7 +3711,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3725,11 +3728,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3758,14 +3761,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3781,7 +3784,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3794,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>34</v>
@@ -3814,7 +3817,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,11 +3827,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3840,14 +3843,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3860,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,14 +3909,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +3959,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3979,7 +3982,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +3992,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,31 +4008,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,31 +4041,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,31 +4074,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,31 +4107,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4137,28 +4140,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>34</v>
@@ -4177,24 +4180,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,7 +4206,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4216,18 +4219,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>256</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4236,31 +4239,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4269,7 +4272,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4282,53 +4285,86 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>260</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>32</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>150</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
         <v>261</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5442.6149999999998</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>262</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c t="s" r="Q94" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5486.6149999999998</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
         <v>263</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
         <v>264</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>265</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4772,10 +4808,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
